--- a/biology/Biochimie/Lipoyle_synthase/Lipoyle_synthase.xlsx
+++ b/biology/Biochimie/Lipoyle_synthase/Lipoyle_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une lipoyle synthase, souvent écrite lipoyl synthase par anglicisme, est une transférase qui catalyse la réaction[1],[2] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une lipoyle synthase, souvent écrite lipoyl synthase par anglicisme, est une transférase qui catalyse la réaction, :
 N6-(octanoyl)lysine–protéine + 2 soufre-[transporteur de soufre] + 2 S-adénosyl-L-méthionine + 2 [2Fe-2S] réduit  
         ⇌
     {\displaystyle \rightleftharpoons }
   N6-(lipoyl)lysine–protéine + 2 [transporteur de soufre] + 2 L-méthionine + 2 5’-désoxyadénosine + 2 [2Fe-2S] oxydé.
-Cette enzyme intervient dans la biosynthèse de l'acide lipoïque à partir de l'acide octanoïque en faisant intervenir un transporteur de soufre et le centre fer-soufre d'une thiorédoxine à l'aide d'un mécanisme radicalaire à S-adénosyl-L-méthionine[3].
+Cette enzyme intervient dans la biosynthèse de l'acide lipoïque à partir de l'acide octanoïque en faisant intervenir un transporteur de soufre et le centre fer-soufre d'une thiorédoxine à l'aide d'un mécanisme radicalaire à S-adénosyl-L-méthionine.
 </t>
         </is>
       </c>
